--- a/05-mayo/SINDICATO.xlsx
+++ b/05-mayo/SINDICATO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8C286-D3FC-4A46-80B5-16BF389703DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F67239A-C53A-4799-90E0-65218DBEF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="210" windowWidth="6150" windowHeight="12345" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
+    <workbookView xWindow="-9090" yWindow="690" windowWidth="6795" windowHeight="14175" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>DEBARRENECHEA</t>
   </si>
@@ -60,7 +60,10 @@
     <t>ORAINDE</t>
   </si>
   <si>
-    <t>SINDICATO MARZO 2025</t>
+    <t>SINDICATO MAYO 2025</t>
+  </si>
+  <si>
+    <t>VENCIMIENTO 25/07/2025</t>
   </si>
 </sst>
 </file>
@@ -101,18 +104,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,21 +142,21 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A6A60-61D1-4F77-8BCE-74EFDBEC8B99}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,128 +482,179 @@
     <col min="3" max="3" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
-        <v>26266.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="8">
+        <v>27368.53</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>6598.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="8">
+        <v>6661.76</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>9903.64</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="8">
+        <v>10168.24</v>
+      </c>
+      <c r="C6" s="6">
         <f>SUM(B4:B6)</f>
-        <v>42768.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+        <v>44198.53</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
-        <v>23264.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="8">
+        <v>25747.65</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10">
-        <v>5841.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="8">
+        <v>6263.78</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10">
-        <v>9903.64</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="8">
+        <v>10168.24</v>
+      </c>
+      <c r="C11" s="6">
         <f>SUM(B9:B11)</f>
-        <v>39010.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+        <v>42179.67</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="10">
-        <v>106295.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="8">
+        <v>132758.57</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10">
-        <v>26724.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B15" s="8">
+        <v>32337.31</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="10">
-        <v>34662.75</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="8">
+        <v>35588.85</v>
+      </c>
+      <c r="C16" s="6">
         <f>SUM(B14:B16)</f>
-        <v>167683</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+        <v>200684.73</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="10">
         <f>SUM(C4:C16)</f>
-        <v>249461.89</v>
-      </c>
+        <v>287062.93</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/05-mayo/SINDICATO.xlsx
+++ b/05-mayo/SINDICATO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F67239A-C53A-4799-90E0-65218DBEF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9577FF8-E343-48D1-BD96-A39A37EBCDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9090" yWindow="690" windowWidth="6795" windowHeight="14175" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
+    <workbookView xWindow="-27840" yWindow="735" windowWidth="9945" windowHeight="12960" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -104,12 +104,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,24 +145,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A6A60-61D1-4F77-8BCE-74EFDBEC8B99}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,179 +487,130 @@
     <col min="3" max="3" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8">
         <v>27368.53</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8">
         <v>6661.76</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8">
         <v>10168.24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <f>SUM(B4:B6)</f>
         <v>44198.53</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="8">
         <v>25747.65</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="8">
         <v>6263.78</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="8">
         <v>10168.24</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <f>SUM(B9:B11)</f>
         <v>42179.67</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="8">
         <v>132758.57</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8">
         <v>32337.31</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="8">
         <v>35588.85</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="1">
         <f>SUM(B14:B16)</f>
         <v>200684.73</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="4">
         <f>SUM(C4:C16)</f>
         <v>287062.93</v>
       </c>
-      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
